--- a/Evaluation/eval003/sub0685/Classifcation Report.xlsx
+++ b/Evaluation/eval003/sub0685/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8958333333333334</v>
+        <v>0.8877551020408163</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8514851485148515</v>
+        <v>0.8613861386138614</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8730964467005076</v>
+        <v>0.8743718592964823</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8584905660377359</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="C3" t="n">
-        <v>0.900990099009901</v>
+        <v>0.8910891089108911</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8792270531400966</v>
+        <v>0.878048780487805</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8771619496855346</v>
+        <v>0.8765698587127159</v>
       </c>
       <c r="C5" t="n">
         <v>0.8762376237623762</v>
       </c>
       <c r="D5" t="n">
-        <v>0.876161749920302</v>
+        <v>0.8762103198921436</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8771619496855346</v>
+        <v>0.8765698587127159</v>
       </c>
       <c r="C6" t="n">
         <v>0.8762376237623762</v>
       </c>
       <c r="D6" t="n">
-        <v>0.876161749920302</v>
+        <v>0.8762103198921437</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
